--- a/ReadWriteExcel/ReadWriteExcel/test3.xlsx
+++ b/ReadWriteExcel/ReadWriteExcel/test3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -36,19 +36,16 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>lastupdate</t>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -84,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -93,6 +90,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -445,10 +445,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F1" s="4">
+        <v>241158.75025462962</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -475,7 +475,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="3">
-        <v>241158.54803240742</v>
+        <v>241158.7494675926</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -491,16 +491,16 @@
         <v>8</v>
       </c>
       <c r="F4" s="3">
-        <v>241158.54996527778</v>
+        <v>241158.7494675926</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="3">
-        <v>241158.54803240742</v>
+        <v>241158.7494675926</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -531,19 +531,19 @@
         <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3">
-        <v>241158.54996527778</v>
+        <v>241158.75052083333</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -561,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>241158.54996527778</v>
+        <v>241158.7498148148</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>241158.54803240742</v>
+        <v>241158.7494675926</v>
       </c>
     </row>
   </sheetData>
